--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_16_9.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_16_9.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1206936.985154208</v>
+        <v>-1209496.255721764</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673428</v>
       </c>
     </row>
     <row r="9">
@@ -656,16 +656,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>66.1194839287087</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>238.4971899894792</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -674,7 +674,7 @@
         <v>410.9662774206981</v>
       </c>
       <c r="H2" t="n">
-        <v>295.0640301736142</v>
+        <v>295.0640301736143</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -707,10 +707,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>110.2029851842622</v>
+        <v>110.2029851842623</v>
       </c>
       <c r="T2" t="n">
-        <v>204.1129955007334</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>250.9987361002815</v>
@@ -719,13 +719,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -753,10 +753,10 @@
         <v>135.0233064626824</v>
       </c>
       <c r="H3" t="n">
-        <v>89.82709352349995</v>
+        <v>89.82709352349997</v>
       </c>
       <c r="I3" t="n">
-        <v>9.512185486736342</v>
+        <v>9.512185486736385</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>98.75886459050415</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -826,13 +826,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0457926480648</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>51.51321644143327</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>89.83072347163689</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>190.11729872947</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.6343371202345</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2129282631967</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>87.99939789535746</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>384.7286950268528</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -950,7 +950,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -959,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>171.5110867208229</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1060,16 +1060,16 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -1102,25 +1102,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>67.58996595590303</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1133,13 +1133,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>303.0256179619643</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1187,7 +1187,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1196,7 +1196,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>29.24132645894479</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1297,16 +1297,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1339,10 +1339,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>8.348269799534616</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
@@ -1351,10 +1351,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>19.656042597054</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1373,7 +1373,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206848</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1385,7 +1385,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444128</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1534,19 +1534,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465732</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,22 +1573,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>53.76947475493812</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>175.3253504652152</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1610,7 +1610,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206828</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1768,7 +1768,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>143.7703193541469</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1777,13 +1777,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>230.4433519268051</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1850,7 +1850,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722605</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1938,7 +1938,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2008,16 +2008,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>21.63824106824964</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>101.6969570046973</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2239,22 +2239,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>162.4016674345631</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>83.06560892428124</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2293,7 +2293,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2476,22 +2476,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>128.3548363691463</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,19 +2521,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053464</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2570,7 +2570,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2713,25 +2713,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>47.08900005058049</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2770,13 +2770,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>168.480551467095</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2947,25 +2947,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>34.22340015155882</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053461</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3187,25 +3187,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C34" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F34" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G34" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652585</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808194</v>
+        <v>42.090599218082</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U34" t="n">
         <v>261.8998268972044</v>
@@ -3247,10 +3247,10 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W34" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X34" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y34" t="n">
         <v>194.3000058600551</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3281,7 +3281,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3424,25 +3424,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C37" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545292</v>
       </c>
       <c r="F37" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652585</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808195</v>
+        <v>42.090599218082</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972044</v>
@@ -3487,7 +3487,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X37" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y37" t="n">
         <v>194.3000058600551</v>
@@ -3506,7 +3506,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3661,25 +3661,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E40" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F40" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H40" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652585</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808198</v>
+        <v>42.090599218082</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
@@ -3724,7 +3724,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y40" t="n">
         <v>194.3000058600551</v>
@@ -4141,7 +4141,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652578</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4195,7 +4195,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X46" t="n">
         <v>201.4250078969974</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1256.360848269458</v>
+        <v>2185.230512818993</v>
       </c>
       <c r="C2" t="n">
-        <v>1189.573490765712</v>
+        <v>1816.267995878581</v>
       </c>
       <c r="D2" t="n">
-        <v>1189.573490765712</v>
+        <v>1575.361743363956</v>
       </c>
       <c r="E2" t="n">
         <v>1189.573490765712</v>
       </c>
       <c r="F2" t="n">
-        <v>778.5875859761043</v>
+        <v>778.587585976104</v>
       </c>
       <c r="G2" t="n">
-        <v>363.4701340360051</v>
+        <v>363.470134036005</v>
       </c>
       <c r="H2" t="n">
-        <v>65.4256591131624</v>
+        <v>65.42565911316234</v>
       </c>
       <c r="I2" t="n">
-        <v>65.4256591131624</v>
+        <v>65.42565911316234</v>
       </c>
       <c r="J2" t="n">
-        <v>250.5613272725629</v>
+        <v>250.5613272725623</v>
       </c>
       <c r="K2" t="n">
-        <v>578.770220618395</v>
+        <v>578.770220618394</v>
       </c>
       <c r="L2" t="n">
-        <v>1022.844136887445</v>
+        <v>1022.844136887444</v>
       </c>
       <c r="M2" t="n">
-        <v>1548.631370064182</v>
+        <v>1548.631370064181</v>
       </c>
       <c r="N2" t="n">
-        <v>2087.540198746181</v>
+        <v>2087.540198746179</v>
       </c>
       <c r="O2" t="n">
-        <v>2583.081262767917</v>
+        <v>2583.081262767915</v>
       </c>
       <c r="P2" t="n">
-        <v>2971.513095303807</v>
+        <v>2971.513095303805</v>
       </c>
       <c r="Q2" t="n">
-        <v>3215.036478301004</v>
+        <v>3215.036478301001</v>
       </c>
       <c r="R2" t="n">
-        <v>3271.28295565812</v>
+        <v>3271.282955658117</v>
       </c>
       <c r="S2" t="n">
-        <v>3159.966809007349</v>
+        <v>3159.966809007346</v>
       </c>
       <c r="T2" t="n">
-        <v>2953.792066077316</v>
+        <v>3159.966809007346</v>
       </c>
       <c r="U2" t="n">
-        <v>2700.257989208344</v>
+        <v>2906.432732138375</v>
       </c>
       <c r="V2" t="n">
-        <v>2369.195101864773</v>
+        <v>2575.369844794805</v>
       </c>
       <c r="W2" t="n">
-        <v>2016.426446594659</v>
+        <v>2575.369844794805</v>
       </c>
       <c r="X2" t="n">
-        <v>1642.960688333579</v>
+        <v>2575.369844794805</v>
       </c>
       <c r="Y2" t="n">
-        <v>1642.960688333579</v>
+        <v>2185.230512818993</v>
       </c>
     </row>
     <row r="3">
@@ -4401,34 +4401,34 @@
         <v>165.7683651841082</v>
       </c>
       <c r="H3" t="n">
-        <v>75.03392728158295</v>
+        <v>75.03392728158293</v>
       </c>
       <c r="I3" t="n">
-        <v>65.4256591131624</v>
+        <v>65.42565911316234</v>
       </c>
       <c r="J3" t="n">
-        <v>156.8733478056106</v>
+        <v>184.547367262164</v>
       </c>
       <c r="K3" t="n">
-        <v>391.3268380794822</v>
+        <v>419.0008575360354</v>
       </c>
       <c r="L3" t="n">
-        <v>752.9010302656279</v>
+        <v>780.5750497221809</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.197926366258</v>
+        <v>1221.871945822811</v>
       </c>
       <c r="N3" t="n">
-        <v>1661.583283102523</v>
+        <v>1689.257302559075</v>
       </c>
       <c r="O3" t="n">
-        <v>2066.929778176384</v>
+        <v>2094.603797632936</v>
       </c>
       <c r="P3" t="n">
-        <v>2372.92301020814</v>
+        <v>2400.597029664691</v>
       </c>
       <c r="Q3" t="n">
-        <v>2527.552185906367</v>
+        <v>2555.226205362918</v>
       </c>
       <c r="R3" t="n">
         <v>2555.226205362918</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>531.1784149847243</v>
+        <v>2096.003618003335</v>
       </c>
       <c r="C4" t="n">
-        <v>531.1784149847243</v>
+        <v>1927.067435075428</v>
       </c>
       <c r="D4" t="n">
-        <v>381.0617755723886</v>
+        <v>1776.950795663093</v>
       </c>
       <c r="E4" t="n">
-        <v>233.1486819899955</v>
+        <v>1629.037702080699</v>
       </c>
       <c r="F4" t="n">
-        <v>233.1486819899955</v>
+        <v>1482.147754582789</v>
       </c>
       <c r="G4" t="n">
-        <v>65.4256591131624</v>
+        <v>1482.147754582789</v>
       </c>
       <c r="H4" t="n">
-        <v>65.4256591131624</v>
+        <v>1430.114202621746</v>
       </c>
       <c r="I4" t="n">
-        <v>65.4256591131624</v>
+        <v>1430.114202621746</v>
       </c>
       <c r="J4" t="n">
-        <v>109.1495242182617</v>
+        <v>1473.838067726845</v>
       </c>
       <c r="K4" t="n">
-        <v>310.8381027401524</v>
+        <v>1675.526646248736</v>
       </c>
       <c r="L4" t="n">
-        <v>624.4564789039126</v>
+        <v>1989.145022412496</v>
       </c>
       <c r="M4" t="n">
-        <v>965.5122071220441</v>
+        <v>2330.200750630627</v>
       </c>
       <c r="N4" t="n">
-        <v>1303.893008842036</v>
+        <v>2668.581552350619</v>
       </c>
       <c r="O4" t="n">
-        <v>1600.426152235785</v>
+        <v>2965.114695744368</v>
       </c>
       <c r="P4" t="n">
-        <v>1830.640801863762</v>
+        <v>3195.329345372345</v>
       </c>
       <c r="Q4" t="n">
-        <v>1906.594412149535</v>
+        <v>3271.282955658117</v>
       </c>
       <c r="R4" t="n">
-        <v>1815.85630763273</v>
+        <v>3271.282955658117</v>
       </c>
       <c r="S4" t="n">
-        <v>1623.818632148416</v>
+        <v>3271.282955658117</v>
       </c>
       <c r="T4" t="n">
-        <v>1623.818632148416</v>
+        <v>3049.430089880102</v>
       </c>
       <c r="U4" t="n">
-        <v>1623.818632148416</v>
+        <v>2760.326121937479</v>
       </c>
       <c r="V4" t="n">
-        <v>1369.134143942529</v>
+        <v>2505.641633731592</v>
       </c>
       <c r="W4" t="n">
-        <v>1079.716973905569</v>
+        <v>2505.641633731592</v>
       </c>
       <c r="X4" t="n">
-        <v>851.7274230075514</v>
+        <v>2277.652082833575</v>
       </c>
       <c r="Y4" t="n">
-        <v>630.9348438640212</v>
+        <v>2277.652082833575</v>
       </c>
     </row>
     <row r="5">
@@ -4541,31 +4541,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1648.00486941082</v>
+        <v>1914.669427940025</v>
       </c>
       <c r="C5" t="n">
-        <v>1279.042352470409</v>
+        <v>1545.706910999613</v>
       </c>
       <c r="D5" t="n">
-        <v>1190.154071768027</v>
+        <v>1187.441212392863</v>
       </c>
       <c r="E5" t="n">
-        <v>1190.154071768027</v>
+        <v>801.6529597946185</v>
       </c>
       <c r="F5" t="n">
-        <v>779.1681669784198</v>
+        <v>794.707459045415</v>
       </c>
       <c r="G5" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
         <v>589.2106210810553</v>
@@ -4574,7 +4574,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060171</v>
@@ -4589,28 +4589,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450754</v>
+        <v>2678.274518176916</v>
       </c>
       <c r="W5" t="n">
-        <v>2424.744041450754</v>
+        <v>2678.274518176916</v>
       </c>
       <c r="X5" t="n">
-        <v>2424.744041450754</v>
+        <v>2304.808759915837</v>
       </c>
       <c r="Y5" t="n">
-        <v>2034.604709474942</v>
+        <v>1914.669427940025</v>
       </c>
     </row>
     <row r="6">
@@ -4620,28 +4620,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
         <v>160.1893859228007</v>
@@ -4650,7 +4650,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158133</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4677,7 +4677,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4686,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>627.5770176220484</v>
+        <v>478.9911633238871</v>
       </c>
       <c r="C7" t="n">
-        <v>458.6408346941415</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="D7" t="n">
-        <v>458.6408346941415</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="E7" t="n">
-        <v>310.7277411117484</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="F7" t="n">
-        <v>163.8377936138381</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="G7" t="n">
-        <v>163.8377936138381</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4750,25 +4750,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1837.464090846021</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1615.697475415547</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1615.697475415547</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V7" t="n">
-        <v>1547.424782530796</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W7" t="n">
-        <v>1258.007612493835</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="X7" t="n">
-        <v>1030.018061595818</v>
+        <v>652.2346852641123</v>
       </c>
       <c r="Y7" t="n">
-        <v>809.2254824522881</v>
+        <v>652.2346852641123</v>
       </c>
     </row>
     <row r="8">
@@ -4778,13 +4778,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1986.901740067214</v>
+        <v>1896.503151925172</v>
       </c>
       <c r="C8" t="n">
-        <v>1617.939223126803</v>
+        <v>1896.503151925172</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>1538.237453318421</v>
       </c>
       <c r="E8" t="n">
         <v>1232.150970528558</v>
@@ -4802,7 +4802,7 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
         <v>589.2106210810553</v>
@@ -4811,7 +4811,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
@@ -4835,19 +4835,19 @@
         <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794324</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="V8" t="n">
-        <v>2755.806928794324</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="W8" t="n">
-        <v>2403.03827352421</v>
+        <v>2656.568750250373</v>
       </c>
       <c r="X8" t="n">
-        <v>2373.501580131336</v>
+        <v>2283.102991989294</v>
       </c>
       <c r="Y8" t="n">
-        <v>2373.501580131336</v>
+        <v>2283.102991989294</v>
       </c>
     </row>
     <row r="9">
@@ -4872,10 +4872,10 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
@@ -4884,10 +4884,10 @@
         <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4936,22 +4936,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>553.2677753977071</v>
+        <v>679.6952191369613</v>
       </c>
       <c r="C10" t="n">
-        <v>384.3315924698002</v>
+        <v>510.7590362090544</v>
       </c>
       <c r="D10" t="n">
-        <v>234.2149530574645</v>
+        <v>360.6423967967187</v>
       </c>
       <c r="E10" t="n">
-        <v>234.2149530574645</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="F10" t="n">
-        <v>234.2149530574645</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H10" t="n">
         <v>66.51211643218342</v>
@@ -4987,25 +4987,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1829.031495088915</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1607.264879658441</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U10" t="n">
-        <v>1318.162012784085</v>
+        <v>1356.675339798491</v>
       </c>
       <c r="V10" t="n">
-        <v>1063.477524578198</v>
+        <v>1101.990851592604</v>
       </c>
       <c r="W10" t="n">
-        <v>774.0603545412372</v>
+        <v>1101.990851592604</v>
       </c>
       <c r="X10" t="n">
-        <v>774.0603545412372</v>
+        <v>1082.136263110731</v>
       </c>
       <c r="Y10" t="n">
-        <v>553.2677753977071</v>
+        <v>861.3436839672011</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168602</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362676</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="K12" t="n">
-        <v>245.2306927803937</v>
+        <v>175.8744207939068</v>
       </c>
       <c r="L12" t="n">
-        <v>740.5562989961525</v>
+        <v>671.2000270096656</v>
       </c>
       <c r="M12" t="n">
-        <v>913.2907898187001</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N12" t="n">
-        <v>1540.888753373307</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="O12" t="n">
-        <v>2092.798483612594</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P12" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>874.868625753642</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C13" t="n">
-        <v>705.9324428257353</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D13" t="n">
-        <v>555.8158034133995</v>
+        <v>612.4182386381635</v>
       </c>
       <c r="E13" t="n">
-        <v>407.9027098310023</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797186</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>2160.315914855605</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>2106.003314093041</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396417</v>
+        <v>1851.318825887154</v>
       </c>
       <c r="W13" t="n">
-        <v>1323.65075579519</v>
+        <v>1561.901655850193</v>
       </c>
       <c r="X13" t="n">
-        <v>1095.661204897172</v>
+        <v>1333.912104952176</v>
       </c>
       <c r="Y13" t="n">
-        <v>874.868625753642</v>
+        <v>1113.119525808646</v>
       </c>
     </row>
     <row r="14">
@@ -5267,31 +5267,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5352,31 +5352,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>738.7889117913853</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1366.386875345992</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>869.9745311434712</v>
+        <v>789.7592298206043</v>
       </c>
       <c r="C16" t="n">
-        <v>701.0383482155642</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="D16" t="n">
-        <v>555.8158034133955</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E16" t="n">
-        <v>407.9027098310024</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5437,7 +5437,7 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L16" t="n">
         <v>826.1405381797745</v>
@@ -5455,31 +5455,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="U16" t="n">
-        <v>2044.506784258106</v>
+        <v>1964.291482935239</v>
       </c>
       <c r="V16" t="n">
-        <v>1789.822296052219</v>
+        <v>1709.606994729352</v>
       </c>
       <c r="W16" t="n">
-        <v>1500.405126015258</v>
+        <v>1420.189824692392</v>
       </c>
       <c r="X16" t="n">
-        <v>1272.415575117241</v>
+        <v>1192.200273794374</v>
       </c>
       <c r="Y16" t="n">
-        <v>1051.622995973711</v>
+        <v>971.4076946508441</v>
       </c>
     </row>
     <row r="17">
@@ -5489,13 +5489,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
         <v>1204.759558406469</v>
@@ -5507,16 +5507,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111722</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5540,25 +5540,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5586,10 +5586,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.584050252739</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
         <v>245.2306927803937</v>
@@ -5598,22 +5598,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>680.0291294438179</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438179</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,37 +5647,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>580.8993044876686</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C19" t="n">
-        <v>580.8993044876686</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="D19" t="n">
-        <v>430.7826650753327</v>
+        <v>363.7369613277357</v>
       </c>
       <c r="E19" t="n">
-        <v>282.8695714929397</v>
+        <v>363.7369613277357</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>363.7369613277357</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797186</v>
+        <v>196.5408620426156</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
         <v>435.7419440038342</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235164</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258105</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602303</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396416</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614385</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>762.5477693179083</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168602</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362684</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111711</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L21" t="n">
-        <v>680.0291294438176</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438176</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,37 +5884,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>869.9745311434717</v>
+        <v>513.8536007400708</v>
       </c>
       <c r="C22" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="D22" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="E22" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797186</v>
+        <v>177.7213185270439</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>2044.506784258106</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1789.822296052219</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1500.405126015259</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1272.415575117241</v>
+        <v>916.2946447138406</v>
       </c>
       <c r="Y22" t="n">
-        <v>1051.622995973711</v>
+        <v>695.5020655703105</v>
       </c>
     </row>
     <row r="23">
@@ -5984,22 +5984,22 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6063,28 +6063,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>95.58405025273903</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L24" t="n">
-        <v>119.290296770379</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M24" t="n">
-        <v>716.6687843969308</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951538</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>835.5837926935558</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>705.9324428257312</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>555.8158034133954</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6148,10 +6148,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6163,34 +6163,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>2035.268256189237</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1755.431557602304</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1466.014387565343</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>1238.024836667326</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>1017.232257523796</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6200,43 +6200,43 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6245,31 +6245,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6297,28 +6297,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L27" t="n">
-        <v>579.1554649516142</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M27" t="n">
-        <v>949.9304447718133</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N27" t="n">
-        <v>1577.52840832642</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>835.5837926935558</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>788.0191461778177</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D28" t="n">
-        <v>637.9025067654819</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E28" t="n">
-        <v>489.9894131830888</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F28" t="n">
-        <v>343.0994656851784</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G28" t="n">
-        <v>175.9033664000582</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1755.431557602304</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1466.014387565343</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1238.024836667326</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>1017.232257523796</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6452,31 +6452,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1540.888753373307</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1540.888753373307</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>762.5477693179085</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>593.6115863900017</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D31" t="n">
-        <v>443.4949469776659</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E31" t="n">
-        <v>295.5818533952727</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6622,10 +6622,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
@@ -6637,34 +6637,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q31" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>2035.268256189237</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533435</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396417</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>1211.329899359456</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>983.3403484614387</v>
+        <v>974.1018203925705</v>
       </c>
       <c r="Y31" t="n">
-        <v>762.5477693179085</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6698,19 +6698,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6774,28 +6774,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1140.291933891999</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1767.889897446606</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150022</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345474</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H34" t="n">
         <v>151.373419438402</v>
@@ -6877,22 +6877,22 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q34" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S34" t="n">
         <v>2438.456847547834</v>
       </c>
       <c r="T34" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U34" t="n">
         <v>1978.840049838286</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W34" t="n">
         <v>1483.798285518751</v>
@@ -6917,37 +6917,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6956,31 +6956,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>95.58405025273902</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>924.8344286397182</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1522.21291626627</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1522.21291626627</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656817</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E37" t="n">
         <v>533.5814564942656</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G37" t="n">
         <v>268.5553036345476</v>
@@ -7090,7 +7090,7 @@
         <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
         <v>198.094482495415</v>
@@ -7111,31 +7111,31 @@
         <v>2179.340199382518</v>
       </c>
       <c r="P37" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973195</v>
       </c>
       <c r="Q37" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S37" t="n">
         <v>2438.456847547834</v>
       </c>
       <c r="T37" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V37" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y37" t="n">
         <v>1084.076049400516</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7260,19 +7260,19 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1540.888753373307</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1540.888753373307</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,55 +7306,55 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319327</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656818</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H40" t="n">
-        <v>151.3734194384019</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>198.0944824954145</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380724</v>
+        <v>483.8255460380727</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311316</v>
+        <v>898.2659412311322</v>
       </c>
       <c r="M40" t="n">
-        <v>1344.317444979285</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N40" t="n">
-        <v>1785.769117656413</v>
+        <v>1785.769117656414</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382517</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973195</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717214</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S40" t="n">
         <v>2438.456847547834</v>
@@ -7400,10 +7400,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
         <v>95.34095638192593</v>
@@ -7485,28 +7485,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>245.2306927803937</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>842.6091804069456</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1470.207143961552</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>2022.116874200839</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2445.740023695907</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656815</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150024</v>
+        <v>656.964603115002</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942651</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345473</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
@@ -7573,7 +7573,7 @@
         <v>483.8255460380728</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311323</v>
+        <v>898.265941231132</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7582,22 +7582,22 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U43" t="n">
         <v>1978.840049838286</v>
@@ -7609,7 +7609,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y43" t="n">
         <v>1084.076049400516</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319321</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656815</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D46" t="n">
-        <v>656.964603115002</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942651</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580117</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345473</v>
+        <v>268.5553036345479</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
@@ -7804,22 +7804,22 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380732</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311327</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M46" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N46" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O46" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P46" t="n">
         <v>2496.057455973196</v>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>27.95355500661968</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8079,7 +8079,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>29.57646828339778</v>
+        <v>1.622913276780281</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -22544,16 +22544,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>299.1534078422989</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>116.1858516312037</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -22565,7 +22565,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>43.29451177962355</v>
+        <v>43.2945117796236</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22598,7 +22598,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>204.1129955007334</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -22607,13 +22607,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22702,10 +22702,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>81.07311559143315</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -22714,16 +22714,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0457926480648</v>
       </c>
       <c r="H4" t="n">
-        <v>144.9326943004822</v>
+        <v>93.41947785904897</v>
       </c>
       <c r="I4" t="n">
-        <v>96.95340549104679</v>
+        <v>96.95340549104682</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22750,28 +22750,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>89.83072347163693</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>190.1172987294701</v>
       </c>
       <c r="T4" t="n">
-        <v>219.6343371202345</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2129282631967</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23428,13 +23428,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922629</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,22 +23461,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>232.414999634306</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>111.1976478713758</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23498,7 +23498,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23656,7 +23656,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>4.845153664065435</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23665,13 +23665,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,16 +23698,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>55.74112246243905</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23896,19 +23896,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>123.7828069546816</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>38.59775584152661</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24127,22 +24127,22 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>4.845153664064725</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194265</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24181,7 +24181,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24364,22 +24364,22 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>38.89198472948149</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24409,19 +24409,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>57.22910392194191</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24601,25 +24601,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>120.1578210480473</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24658,13 +24658,13 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>57.22910392194214</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24835,25 +24835,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>111.1976478713724</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24883,13 +24883,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>57.22910392194214</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25318,7 +25318,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>2.344791028008331e-13</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -26314,19 +26314,19 @@
         <v>152326.9268048895</v>
       </c>
       <c r="C2" t="n">
-        <v>184734.3982194638</v>
+        <v>184734.3982194639</v>
       </c>
       <c r="D2" t="n">
         <v>184734.3982194638</v>
       </c>
       <c r="E2" t="n">
+        <v>181607.9849302515</v>
+      </c>
+      <c r="F2" t="n">
         <v>181607.9849302513</v>
       </c>
-      <c r="F2" t="n">
-        <v>181607.9849302514</v>
-      </c>
       <c r="G2" t="n">
-        <v>181607.9849302514</v>
+        <v>181607.9849302513</v>
       </c>
       <c r="H2" t="n">
         <v>181607.9849302514</v>
@@ -26335,10 +26335,10 @@
         <v>181607.9849302514</v>
       </c>
       <c r="J2" t="n">
-        <v>181607.9849302513</v>
+        <v>181607.9849302514</v>
       </c>
       <c r="K2" t="n">
-        <v>181607.9849302513</v>
+        <v>181607.9849302514</v>
       </c>
       <c r="L2" t="n">
         <v>184734.3982194636</v>
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1313514.533081208</v>
+        <v>1313514.533081207</v>
       </c>
       <c r="C3" t="n">
-        <v>14479.0523207452</v>
+        <v>14479.05232074576</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073554</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,22 +26381,22 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>213977.8894125532</v>
+        <v>213977.8894125531</v>
       </c>
       <c r="K3" t="n">
-        <v>3495.241841022609</v>
+        <v>3495.241841022668</v>
       </c>
       <c r="L3" t="n">
-        <v>19427.7179936318</v>
+        <v>19427.71799363175</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551172</v>
+        <v>85055.0279355119</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>11046.00124731553</v>
+        <v>11046.00124731557</v>
       </c>
       <c r="C4" t="n">
-        <v>89744.12305813248</v>
+        <v>89744.12305813252</v>
       </c>
       <c r="D4" t="n">
         <v>89744.12305813251</v>
       </c>
       <c r="E4" t="n">
-        <v>10557.0882867812</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="F4" t="n">
         <v>10557.08828678121</v>
       </c>
       <c r="G4" t="n">
-        <v>10557.08828678127</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="H4" t="n">
-        <v>10557.08828678123</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="I4" t="n">
         <v>10557.08828678121</v>
       </c>
       <c r="J4" t="n">
-        <v>10557.08828678127</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="K4" t="n">
         <v>10557.08828678121</v>
       </c>
       <c r="L4" t="n">
-        <v>18547.94754987471</v>
+        <v>18547.94754987468</v>
       </c>
       <c r="M4" t="n">
-        <v>18547.94754987473</v>
+        <v>18547.94754987468</v>
       </c>
       <c r="N4" t="n">
-        <v>18547.94754987469</v>
+        <v>18547.94754987466</v>
       </c>
       <c r="O4" t="n">
         <v>18547.94754987467</v>
       </c>
       <c r="P4" t="n">
-        <v>18547.94754987467</v>
+        <v>18547.94754987468</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1279100.247426745</v>
+        <v>-1279460.330442462</v>
       </c>
       <c r="C6" t="n">
-        <v>-27422.71772080718</v>
+        <v>-27422.71772080763</v>
       </c>
       <c r="D6" t="n">
-        <v>-12943.665400062</v>
+        <v>-12943.66540006197</v>
       </c>
       <c r="E6" t="n">
-        <v>-255484.0949877921</v>
+        <v>-255518.832913228</v>
       </c>
       <c r="F6" t="n">
-        <v>69928.36681956307</v>
+        <v>69893.62889412732</v>
       </c>
       <c r="G6" t="n">
-        <v>69928.36681956321</v>
+        <v>69893.6288941275</v>
       </c>
       <c r="H6" t="n">
-        <v>69928.36681956289</v>
+        <v>69893.62889412735</v>
       </c>
       <c r="I6" t="n">
-        <v>69928.3668195631</v>
+        <v>69893.62889412741</v>
       </c>
       <c r="J6" t="n">
-        <v>-144049.5225929902</v>
+        <v>-144084.2605184257</v>
       </c>
       <c r="K6" t="n">
-        <v>66433.12497854036</v>
+        <v>66398.38705310473</v>
       </c>
       <c r="L6" t="n">
-        <v>43594.61682204169</v>
+        <v>43594.61682204172</v>
       </c>
       <c r="M6" t="n">
-        <v>-22032.69311983822</v>
+        <v>-22032.69311983837</v>
       </c>
       <c r="N6" t="n">
-        <v>63022.3348156735</v>
+        <v>63022.33481567356</v>
       </c>
       <c r="O6" t="n">
         <v>63022.33481567365</v>
       </c>
       <c r="P6" t="n">
-        <v>63022.33481567356</v>
+        <v>63022.33481567353</v>
       </c>
     </row>
   </sheetData>
@@ -26713,19 +26713,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O2" t="n">
         <v>24.28464749203971</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="3">
@@ -26787,16 +26787,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>817.8207389145299</v>
+        <v>817.8207389145292</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26960,13 +26960,13 @@
         <v>1078.694448491203</v>
       </c>
       <c r="C3" t="n">
-        <v>11.08225210209525</v>
+        <v>11.08225210209571</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26975,7 +26975,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>817.8207389145299</v>
+        <v>817.8207389145292</v>
       </c>
       <c r="C4" t="n">
-        <v>13.58071648776286</v>
+        <v>13.58071648776331</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.306832697356</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>817.8207389145297</v>
+        <v>817.8207389145292</v>
       </c>
       <c r="K4" t="n">
-        <v>13.58071648776308</v>
+        <v>13.58071648776331</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>817.8207389145299</v>
+        <v>817.8207389145292</v>
       </c>
       <c r="K4" t="n">
-        <v>13.58071648776286</v>
+        <v>13.58071648776331</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>266.6836437253255</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>26.1930306266006</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27670,7 +27670,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27679,7 +27679,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>8.320893461114423</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27780,16 +27780,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27822,25 +27822,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>184.547677367925</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27853,13 +27853,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>78.90475211029752</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27907,7 +27907,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27916,7 +27916,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>340.4897742195242</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28017,16 +28017,16 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -28059,10 +28059,10 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>181.4207555319073</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28071,10 +28071,10 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>206.0536127919831</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28093,7 +28093,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>-1.111192148006168e-12</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -28105,7 +28105,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>9.848122317634988e-13</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28254,13 +28254,13 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>-9.831888791845538e-13</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>5.968558980384842e-12</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -28570,7 +28570,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>1.307398633798584e-12</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29290,7 +29290,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="35">
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -30001,7 +30001,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="38">
@@ -30226,7 +30226,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="41">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
   </sheetData>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.336460094436994</v>
+        <v>4.336460094436992</v>
       </c>
       <c r="H2" t="n">
-        <v>44.41077194215288</v>
+        <v>44.41077194215286</v>
       </c>
       <c r="I2" t="n">
-        <v>167.1813777907824</v>
+        <v>167.1813777907823</v>
       </c>
       <c r="J2" t="n">
-        <v>368.0516299402221</v>
+        <v>368.051629940222</v>
       </c>
       <c r="K2" t="n">
-        <v>551.6139857377402</v>
+        <v>551.61398573774</v>
       </c>
       <c r="L2" t="n">
-        <v>684.3259263528665</v>
+        <v>684.3259263528662</v>
       </c>
       <c r="M2" t="n">
-        <v>761.4444485573104</v>
+        <v>761.44444855731</v>
       </c>
       <c r="N2" t="n">
-        <v>773.7654158006295</v>
+        <v>773.7654158006292</v>
       </c>
       <c r="O2" t="n">
-        <v>730.6447407365716</v>
+        <v>730.6447407365713</v>
       </c>
       <c r="P2" t="n">
-        <v>623.5883821551582</v>
+        <v>623.588382155158</v>
       </c>
       <c r="Q2" t="n">
-        <v>468.2889050231332</v>
+        <v>468.2889050231331</v>
       </c>
       <c r="R2" t="n">
-        <v>272.4001614071781</v>
+        <v>272.400161407178</v>
       </c>
       <c r="S2" t="n">
-        <v>98.8170844019831</v>
+        <v>98.81708440198305</v>
       </c>
       <c r="T2" t="n">
-        <v>18.98285406339795</v>
+        <v>18.98285406339794</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3469168075549595</v>
+        <v>0.3469168075549593</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.320210700528248</v>
+        <v>2.320210700528247</v>
       </c>
       <c r="H3" t="n">
-        <v>22.4083507129965</v>
+        <v>22.40835071299649</v>
       </c>
       <c r="I3" t="n">
-        <v>79.88444736467873</v>
+        <v>79.88444736467869</v>
       </c>
       <c r="J3" t="n">
-        <v>219.2090293863114</v>
+        <v>219.2090293863113</v>
       </c>
       <c r="K3" t="n">
-        <v>374.663146321704</v>
+        <v>374.6631463217038</v>
       </c>
       <c r="L3" t="n">
-        <v>503.7808365335567</v>
+        <v>503.7808365335565</v>
       </c>
       <c r="M3" t="n">
-        <v>587.8884744277055</v>
+        <v>587.8884744277053</v>
       </c>
       <c r="N3" t="n">
-        <v>603.4481330290553</v>
+        <v>603.4481330290549</v>
       </c>
       <c r="O3" t="n">
-        <v>552.0371485594555</v>
+        <v>552.0371485594553</v>
       </c>
       <c r="P3" t="n">
-        <v>443.0584801736793</v>
+        <v>443.0584801736791</v>
       </c>
       <c r="Q3" t="n">
-        <v>296.1728606498866</v>
+        <v>296.1728606498864</v>
       </c>
       <c r="R3" t="n">
         <v>144.0565906871837</v>
       </c>
       <c r="S3" t="n">
-        <v>43.09689612604002</v>
+        <v>43.09689612604</v>
       </c>
       <c r="T3" t="n">
-        <v>9.352077341164295</v>
+        <v>9.352077341164291</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1526454408242269</v>
+        <v>0.1526454408242268</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31203,40 +31203,40 @@
         <v>17.29447820695733</v>
       </c>
       <c r="I4" t="n">
-        <v>58.49706943621148</v>
+        <v>58.49706943621145</v>
       </c>
       <c r="J4" t="n">
         <v>137.5247004248538</v>
       </c>
       <c r="K4" t="n">
-        <v>225.9953287166815</v>
+        <v>225.9953287166814</v>
       </c>
       <c r="L4" t="n">
-        <v>289.1962132889366</v>
+        <v>289.1962132889365</v>
       </c>
       <c r="M4" t="n">
-        <v>304.9168586120297</v>
+        <v>304.9168586120296</v>
       </c>
       <c r="N4" t="n">
-        <v>297.6666172369251</v>
+        <v>297.666617236925</v>
       </c>
       <c r="O4" t="n">
-        <v>274.9432997564136</v>
+        <v>274.9432997564135</v>
       </c>
       <c r="P4" t="n">
-        <v>235.2614908643764</v>
+        <v>235.2614908643763</v>
       </c>
       <c r="Q4" t="n">
-        <v>162.8828617221717</v>
+        <v>162.8828617221716</v>
       </c>
       <c r="R4" t="n">
-        <v>87.4626679055326</v>
+        <v>87.46266790553256</v>
       </c>
       <c r="S4" t="n">
-        <v>33.89929930750222</v>
+        <v>33.8992993075022</v>
       </c>
       <c r="T4" t="n">
-        <v>8.311252308046971</v>
+        <v>8.311252308046967</v>
       </c>
       <c r="U4" t="n">
         <v>0.1061010932942168</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>218.9428233593769</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>316.6133175811573</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>640.7275049411307</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,37 +32224,37 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
         <v>345.4516222043725</v>
@@ -32263,10 +32263,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32312,37 +32312,37 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>240.4469701760394</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437242</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
         <v>0.1935814387275954</v>
@@ -32388,28 +32388,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
         <v>206.5643005515927</v>
@@ -32418,7 +32418,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32549,16 +32549,16 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>326.7634969305194</v>
       </c>
       <c r="L21" t="n">
-        <v>579.5299594447137</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
@@ -32567,13 +32567,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32783,16 +32783,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>326.7634969305194</v>
       </c>
       <c r="L24" t="n">
-        <v>162.5000833330458</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32804,10 +32804,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33020,19 +33020,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>326.7634969305194</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>516.654215558583</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
@@ -33041,7 +33041,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33257,7 +33257,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33269,22 +33269,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>613.2529048371032</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33494,31 +33494,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>547.6926421044561</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33734,7 +33734,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
@@ -33746,19 +33746,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>483.3274636075166</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33980,22 +33980,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>613.2529048371032</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34205,16 +34205,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34223,13 +34223,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>248.3870916262918</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34442,7 +34442,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34457,19 +34457,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>322.6999460717714</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>187.0057254135359</v>
+        <v>187.0057254135357</v>
       </c>
       <c r="K2" t="n">
-        <v>331.5241346927597</v>
+        <v>331.5241346927594</v>
       </c>
       <c r="L2" t="n">
-        <v>448.5595113828793</v>
+        <v>448.559511382879</v>
       </c>
       <c r="M2" t="n">
-        <v>531.0982153300376</v>
+        <v>531.0982153300373</v>
       </c>
       <c r="N2" t="n">
-        <v>544.3523522040387</v>
+        <v>544.3523522040382</v>
       </c>
       <c r="O2" t="n">
-        <v>500.5465293148849</v>
+        <v>500.5465293148845</v>
       </c>
       <c r="P2" t="n">
-        <v>392.3553863998887</v>
+        <v>392.3553863998885</v>
       </c>
       <c r="Q2" t="n">
-        <v>245.9832151486837</v>
+        <v>245.9832151486836</v>
       </c>
       <c r="R2" t="n">
-        <v>56.81462359304595</v>
+        <v>56.81462359304584</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34775,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>92.37140271964472</v>
+        <v>120.3249577262643</v>
       </c>
       <c r="K3" t="n">
-        <v>236.821707347345</v>
+        <v>236.8217073473448</v>
       </c>
       <c r="L3" t="n">
-        <v>365.2264567536826</v>
+        <v>365.2264567536823</v>
       </c>
       <c r="M3" t="n">
-        <v>445.7544405056872</v>
+        <v>445.754440505687</v>
       </c>
       <c r="N3" t="n">
-        <v>472.106420945722</v>
+        <v>472.1064209457217</v>
       </c>
       <c r="O3" t="n">
-        <v>409.4409041150111</v>
+        <v>409.4409041150109</v>
       </c>
       <c r="P3" t="n">
-        <v>309.0840727593491</v>
+        <v>309.0840727593488</v>
       </c>
       <c r="Q3" t="n">
-        <v>156.191086563865</v>
+        <v>156.1910865638649</v>
       </c>
       <c r="R3" t="n">
-        <v>27.95355500661755</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>44.16552030818107</v>
+        <v>44.16552030818102</v>
       </c>
       <c r="K4" t="n">
-        <v>203.7258368907986</v>
+        <v>203.7258368907985</v>
       </c>
       <c r="L4" t="n">
-        <v>316.7862385492527</v>
+        <v>316.7862385492526</v>
       </c>
       <c r="M4" t="n">
-        <v>344.5007355738703</v>
+        <v>344.5007355738701</v>
       </c>
       <c r="N4" t="n">
-        <v>341.7987896161537</v>
+        <v>341.7987896161536</v>
       </c>
       <c r="O4" t="n">
-        <v>299.5284276704533</v>
+        <v>299.5284276704531</v>
       </c>
       <c r="P4" t="n">
         <v>232.5400501292698</v>
       </c>
       <c r="Q4" t="n">
-        <v>76.72081847047728</v>
+        <v>76.7208184704772</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>81.10138438501795</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>174.479283659139</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>498.1312604966863</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,31 +35878,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902404</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>101.8925903961653</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992797</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789208</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
         <v>264.3325884096349</v>
@@ -36048,19 +36048,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36197,16 +36197,16 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="L21" t="n">
-        <v>440.9755796648395</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
@@ -36215,13 +36215,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295339</v>
       </c>
       <c r="K22" t="n">
         <v>264.3325884096349</v>
@@ -36294,7 +36294,7 @@
         <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q22" t="n">
         <v>120.4022572998984</v>
@@ -36431,16 +36431,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="L24" t="n">
-        <v>23.94570355317166</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36452,10 +36452,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36668,19 +36668,19 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>374.5201816365647</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
@@ -36689,7 +36689,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36917,22 +36917,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>471.1188709150848</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37142,31 +37142,31 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>405.5586081824378</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N34" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P34" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37382,7 +37382,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
@@ -37394,19 +37394,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>340.7312191630721</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K37" t="n">
         <v>288.6172359016746</v>
@@ -37482,7 +37482,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37628,22 +37628,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>471.1188709150848</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K40" t="n">
         <v>288.6172359016746</v>
@@ -37853,16 +37853,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37871,13 +37871,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>108.4053175402703</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37956,7 +37956,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38105,19 +38105,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>191.358233988438</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38175,25 +38175,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L46" t="n">
         <v>418.6266618111712</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
